--- a/www/ig/nos/CodeSystem-TRE-R368-StatutRessource.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R368-StatutRessource.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
